--- a/Training/moving/mountain to t pose/3-split.xlsx
+++ b/Training/moving/mountain to t pose/3-split.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6430218289e9316d/Documents/GitHub/UHF-RFID/Training/moving/mountain to t pose/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{7B385A02-2F62-431B-A6FE-B98C77878F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{916FB157-CDE2-4C6F-A28A-7F2594AD506B}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{7B385A02-2F62-431B-A6FE-B98C77878F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5E212441-18E3-499A-9E67-B7141DCA14A9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,6 +709,29 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mountain to T Pose</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> RSSI: Run 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1478,10 +1501,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$C$1:$C$132</c:f>
+              <c:f>Sheet3!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-52</c:v>
                 </c:pt>
@@ -1877,6 +1900,312 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2252,10 +2581,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$1:$C$198</c:f>
+              <c:f>Sheet2!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-57</c:v>
                 </c:pt>
@@ -2594,6 +2923,15 @@
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-57.336283185840706</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.73933632725847243</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2993,10 +3331,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$50</c:f>
+              <c:f>Sheet1!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-55</c:v>
                 </c:pt>
@@ -3146,6 +3484,219 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-61</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3154,2544 +3705,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$C$1:$C$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712461320db93</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.646862453701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.646864768518</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.646865509261</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.646866342591</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.646866805553</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.646867546297</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.646868391203</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.64686912037</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.64686976852</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.646870613426</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.646870983794</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.646871712961</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.646872743055</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.646873379628</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.646874027778</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.646874953702</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.646875509257</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.646876539351</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.646877175925</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.646877928244</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.64687837963</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.6468794213</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.64687960648</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.646879976855</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.646880810185</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.646881550929</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.646882013891</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.646882847221</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.646883125002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.646883773152</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.646884050926</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.646884699076</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.646885810187</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.646886365743</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.646887013892</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.646887569441</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.646888680552</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.646889791664</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.646890439813</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.646891643519</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.646891921293</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.646893124998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.64689358796</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.646894143516</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.646894791666</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.646895810183</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.646896087965</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.646897013889</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.646898125</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.646898587962</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.646899421299</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.646899699073</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.646900624997</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.646901365741</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.64690266204</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.646903032408</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.646903680557</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.646904050926</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.646904976849</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.646905439811</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.646907939816</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.646908680559</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.646909699077</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.646910254633</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.646911828706</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.646912569442</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.646913217592</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.646914421297</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.64691516204</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.646915625002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.646916365738</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.646916736114</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.646917569444</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.646918402781</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.646918587961</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.646919143517</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.646919606479</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.646919884261</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.646920810184</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.646921550928</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.646922384258</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.646922939814</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.646923865737</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.646924699075</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.64692525463</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.64692590278</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.64692673611</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.646927662034</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.646928680559</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.646929421295</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.646930069444</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.646930347219</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44277.646930995368</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44277.646931550924</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44277.646932199073</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44277.646932847223</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44277.646934236109</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44277.646934421296</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44277.646935625002</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44277.646936087964</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44277.646936643519</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44277.646937291669</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44277.646937939811</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44277.646938495367</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44277.646938958336</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44277.646939513892</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44277.646940439816</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44277.646940810184</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44277.646942013889</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44277.646942754633</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44277.646943310188</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44277.6469444213</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44277.646944976848</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44277.646945636574</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44277.646946006942</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44277.646946469904</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44277.646946747685</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44277.646947488429</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44277.646947951391</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44277.646948136571</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44277.646948784721</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44277.64694943287</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44277.64695008102</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44277.64695091435</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44277.646951284725</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44277.646952118055</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44277.646952581017</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44277.646952951392</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44277.646953136573</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44277.646953506941</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44277.646953877316</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44277.646954340278</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44277.646954710646</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>44277.646955081022</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>44277.64695545139</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>44277.646955821758</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>44277.646956006945</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>44277.646956469907</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>44277.646956840275</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>44277.646957210651</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>44277.646957581019</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>44277.646957951387</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>44277.646958321762</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>44277.64695869213</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>44277.646959062498</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>44277.646959432874</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>44277.646959803242</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>44277.646960358798</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>44277.646960358798</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>44277.646960729166</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>44277.646961192127</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>44277.646961562503</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>44277.646961932871</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>44277.646962303239</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>44277.646962673614</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>44277.646963043982</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>44277.64696341435</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>44277.646963784726</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>44277.64696416667</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>44277.646964537038</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>44277.646964722226</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>44277.646965092594</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>44277.646965462962</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>44277.64696583333</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>44277.646966203705</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>44277.646966574073</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>44277.646967037035</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>44277.646967407411</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>44277.646967592591</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>44277.646967962966</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>44277.646968333334</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>44277.646968796296</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>44277.646969166664</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>44277.646969444446</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>44277.646969907408</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>44277.646970185182</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>44277.646970648151</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>44277.646971018519</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>44277.646971388887</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>44277.646971851849</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>44277.646971944443</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>44277.646972222225</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>44277.646972592593</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>44277.646973055555</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>44277.646973425923</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>44277.646973703704</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>44277.646974166666</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>44277.646974444448</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>44277.646974907409</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>44277.646975277778</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>44277.646975648146</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>44277.646976018521</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>44277.646976203701</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>44277.646976666663</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>44277.646977037039</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>44277.646977407407</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>44277.646977777775</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>44277.64697814815</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>44277.646978518518</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>44277.646979074074</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>44277.646979907404</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>44277.64698046296</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>44277.646980925929</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>44277.646981574071</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>44277.646982129627</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>44277.646982592596</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>44277.646983055558</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>44277.64698351852</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>44277.646983888888</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>44277.646984259256</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>44277.646984999999</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>44277.646985370367</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>44277.646985925923</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>44277.646986296299</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>44277.646986851854</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>44277.64698740741</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>44277.646987685184</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>44277.646987962966</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>44277.646988333334</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>44277.646988703702</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>44277.646989074077</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>44277.646989444445</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>44277.646989814813</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>44277.646990185189</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>44277.646990555557</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>44277.646990925925</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>44277.646991307869</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>44277.646991678244</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>44277.646992048612</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>44277.646992418981</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>44277.646992789349</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>44277.646993252318</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>44277.646993622686</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>44277.64699390046</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$C$1:$C$132</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
-                <c:pt idx="0">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712401320d4a0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.646862083333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.646863009257</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.646863657406</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.646864120368</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.646865046299</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.646865601855</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.646866064817</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.646867002317</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.646868020835</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.64686857639</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.64686912037</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.646870231481</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.646871261575</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.646872002311</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.646872372687</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.646872650461</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.646873564816</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.64687459491</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.646875231483</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.646875787039</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.646876064813</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.646877268518</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.646877928244</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.646878576386</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.646878935186</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.646880624998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.646884236114</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.646885162038</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.646885439812</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.646887199073</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.64688803241</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.646889236108</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.646890069445</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.646890810189</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.646891273151</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.646892384262</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.646893032404</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.646893680554</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.646894976853</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.646895347221</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.646895532409</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.64689664352</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.64689747685</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.646898125</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.64689877315</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.646899328705</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.646899884261</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.646900254629</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.646900995373</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.646901921296</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.646903587964</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.646904884263</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.646905810187</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.646906458336</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.646906828704</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.646907291666</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.646907939816</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.646908587965</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.646909236108</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.646909328701</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.646910254633</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.646910995369</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.646911458331</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.646912013886</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.646912939817</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.646913680554</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.646914050929</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.646914606485</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.646914976853</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.646916273145</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.646916921294</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.646917384256</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.646918217593</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.646920717591</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.646921736108</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.646923125001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.646923865737</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.646924236113</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.646926180554</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.646926921298</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.646927569447</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.646928217589</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.646929236114</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.646929976851</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.646930625</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.646931828705</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.646932662035</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.646933310185</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.646934236109</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.646934976852</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.646935625002</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.646936087964</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44277.646936921294</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44277.646937939811</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44277.646938773149</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44277.64694053241</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44277.646941273146</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44277.646943680556</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44277.64694460648</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44277.646945069442</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44277.64694554398</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44277.646946006942</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44277.646946469904</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44277.64694702546</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44277.646947488429</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44277.646947858797</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44277.646948414353</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44277.646949062502</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44277.646949710645</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44277.6469502662</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44277.646950636576</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44277.646951562499</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44277.646951932868</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$1:$C$198</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
-                <c:pt idx="0">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-59</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712171320c120</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.646862453701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.646863009257</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.646863935188</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.646864490744</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.646865416667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.646866342591</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.646866805553</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.646867546297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.646868206015</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.646869583332</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.646870416669</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.646871342593</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.646871805555</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.646872916666</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.646873379628</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.646874317128</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.646874861108</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.646875324077</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.646876354163</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.646876805557</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.646877546293</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.646878206018</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.646879236112</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.646879884262</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.646880162036</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.646880995373</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.646881365741</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.646882199071</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.646882754627</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.646883310183</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.646883865738</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.646884513888</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.646885069444</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.646885810187</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.646886365743</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.646887106479</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.646887754629</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.646888680552</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.646889050928</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.646889699077</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.646890625001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.646891458331</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.646892106481</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.64689275463</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.646894143516</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.646894513891</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.646895902777</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.646896458333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.64689729167</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.646897754632</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.646898402774</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.646900624997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.646901087966</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.64690201389</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.646902754626</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.646902939814</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.646903310182</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.646904328707</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.646905069443</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.646905624999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.646906550923</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.646907291666</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.646909143521</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.646909884257</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.646910717594</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.646910810188</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.646911828706</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.646912013886</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.64691275463</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.646913495373</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.646914328703</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.64691516204</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.646915625002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.646917569444</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.646917939812</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.646918773149</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.646919050923</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.646919513892</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.646920347222</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.646920995372</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.64692136574</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.646922291664</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.646923495369</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.646924513887</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.64692525463</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.64692590278</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.646926458336</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.646927291666</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.646928217589</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.646928773145</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.646929236114</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.646930532406</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44277.646931087962</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44277.646932476855</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44277.646933032411</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44277.646933680553</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44277.646934699071</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44277.646935254626</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44277.646936273151</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44277.646937013888</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44277.646937384263</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44277.646937754631</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44277.646938402781</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44277.64693923611</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44277.646939699072</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44277.646940162034</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44277.646941180552</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44277.646941458333</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44277.646942013889</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44277.646942476851</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44277.646943402775</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44277.646943958331</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44277.646979259262</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44277.646980092592</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44277.646981851853</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44277.64698351852</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44277.646983888888</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44277.646984444444</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44277.646984999999</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44277.646985740743</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44277.646987222222</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-4DD0-4B4D-9BBF-9D10164AD156}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5772,6 +3785,8 @@
         <c:axId val="649973599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-50"/>
+          <c:min val="-65"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5831,6 +3846,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5868,6 +3887,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mountain to T Pose Phase: Run 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5896,10 +3933,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$D$1:$D$69</c:f>
+              <c:f>Sheet4!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="1048576"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6298,10 +4335,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$50</c:f>
+              <c:f>Sheet1!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -6451,6 +4488,219 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6463,68 +4713,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$D$1:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BD01-4F5C-8056-3BA37DC19ECF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet3!$B$1</c:f>
@@ -7273,10 +5463,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$D$1:$D$132</c:f>
+              <c:f>Sheet3!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>174</c:v>
                 </c:pt>
@@ -7671,6 +5861,312 @@
                   <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="131">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="233">
                   <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
@@ -7685,7 +6181,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$B$1</c:f>
@@ -8071,10 +6567,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$1:$D$198</c:f>
+              <c:f>Sheet2!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -8413,6 +6909,15 @@
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>169.00884955752213</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>22.88460788672052</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8501,6 +7006,8 @@
         <c:axId val="649973599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="180"/>
+          <c:min val="160"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8560,6 +7067,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8587,16 +7098,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8623,16 +7134,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>233</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>286</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8959,11 +7470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D501"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8985,7 +7495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44277.646862083333</v>
       </c>
@@ -9013,7 +7523,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44277.646862453701</v>
       </c>
@@ -9027,7 +7537,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44277.646863009257</v>
       </c>
@@ -9041,7 +7551,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44277.646863009257</v>
       </c>
@@ -9055,7 +7565,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44277.646863287038</v>
       </c>
@@ -9065,7 +7575,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44277.646863657406</v>
       </c>
@@ -9079,7 +7589,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44277.646863935188</v>
       </c>
@@ -9093,7 +7603,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44277.646863935188</v>
       </c>
@@ -9103,7 +7613,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44277.646864120368</v>
       </c>
@@ -9113,7 +7623,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44277.646864120368</v>
       </c>
@@ -9127,7 +7637,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44277.646864490744</v>
       </c>
@@ -9155,7 +7665,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44277.646865046299</v>
       </c>
@@ -9169,7 +7679,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44277.646865416667</v>
       </c>
@@ -9197,7 +7707,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44277.646865601855</v>
       </c>
@@ -9211,7 +7721,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>44277.646866064817</v>
       </c>
@@ -9225,7 +7735,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44277.646866342591</v>
       </c>
@@ -9253,7 +7763,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44277.646866805553</v>
       </c>
@@ -9281,7 +7791,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44277.646867002317</v>
       </c>
@@ -9309,7 +7819,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44277.646867546297</v>
       </c>
@@ -9323,7 +7833,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>44277.646868020835</v>
       </c>
@@ -9337,7 +7847,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>44277.646868206015</v>
       </c>
@@ -9365,7 +7875,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>44277.64686857639</v>
       </c>
@@ -9379,7 +7889,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>44277.64686912037</v>
       </c>
@@ -9407,7 +7917,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44277.646869305558</v>
       </c>
@@ -9417,7 +7927,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44277.646869583332</v>
       </c>
@@ -9445,7 +7955,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>44277.646870231481</v>
       </c>
@@ -9459,7 +7969,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>44277.646870416669</v>
       </c>
@@ -9501,7 +8011,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>44277.646871261575</v>
       </c>
@@ -9515,7 +8025,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>44277.646871342593</v>
       </c>
@@ -9543,7 +8053,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>44277.646871805555</v>
       </c>
@@ -9557,7 +8067,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>44277.646872002311</v>
       </c>
@@ -9571,7 +8081,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44277.646872372687</v>
       </c>
@@ -9585,7 +8095,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44277.646872650461</v>
       </c>
@@ -9613,7 +8123,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>44277.646872916666</v>
       </c>
@@ -9641,7 +8151,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>44277.646873379628</v>
       </c>
@@ -9655,7 +8165,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>44277.646873564816</v>
       </c>
@@ -9683,7 +8193,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>44277.646874317128</v>
       </c>
@@ -9697,7 +8207,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>44277.64687459491</v>
       </c>
@@ -9711,7 +8221,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>44277.646874861108</v>
       </c>
@@ -9739,7 +8249,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>44277.646875231483</v>
       </c>
@@ -9753,7 +8263,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>44277.646875231483</v>
       </c>
@@ -9763,7 +8273,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>44277.646875324077</v>
       </c>
@@ -9791,7 +8301,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>44277.646875787039</v>
       </c>
@@ -9805,7 +8315,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>44277.646876064813</v>
       </c>
@@ -9819,7 +8329,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>44277.646876354163</v>
       </c>
@@ -9847,7 +8357,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>44277.646876805557</v>
       </c>
@@ -9875,7 +8385,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>44277.646877268518</v>
       </c>
@@ -9889,7 +8399,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>44277.646877546293</v>
       </c>
@@ -9917,7 +8427,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>44277.646877928244</v>
       </c>
@@ -9931,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>44277.646878206018</v>
       </c>
@@ -9959,7 +8469,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>44277.646878576386</v>
       </c>
@@ -9973,7 +8483,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>44277.646878935186</v>
       </c>
@@ -9987,7 +8497,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>44277.646879236112</v>
       </c>
@@ -10029,7 +8539,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>44277.646879884262</v>
       </c>
@@ -10057,7 +8567,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>44277.646880162036</v>
       </c>
@@ -10071,7 +8581,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>44277.646880624998</v>
       </c>
@@ -10099,7 +8609,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>44277.646880995373</v>
       </c>
@@ -10113,7 +8623,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>44277.646881365741</v>
       </c>
@@ -10155,7 +8665,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>44277.646882199071</v>
       </c>
@@ -10169,7 +8679,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>44277.646882754627</v>
       </c>
@@ -10211,7 +8721,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>44277.646883310183</v>
       </c>
@@ -10239,7 +8749,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>44277.646883865738</v>
       </c>
@@ -10267,7 +8777,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>44277.646884236114</v>
       </c>
@@ -10281,7 +8791,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>44277.646884513888</v>
       </c>
@@ -10309,7 +8819,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>44277.646885069444</v>
       </c>
@@ -10323,7 +8833,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>44277.646885162038</v>
       </c>
@@ -10337,7 +8847,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>44277.646885439812</v>
       </c>
@@ -10351,7 +8861,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>44277.646885810187</v>
       </c>
@@ -10379,7 +8889,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>44277.646886365743</v>
       </c>
@@ -10407,7 +8917,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>44277.646886736111</v>
       </c>
@@ -10417,7 +8927,7 @@
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>44277.646886828705</v>
       </c>
@@ -10441,7 +8951,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>44277.646887106479</v>
       </c>
@@ -10455,7 +8965,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>44277.646887199073</v>
       </c>
@@ -10483,7 +8993,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>44277.646887754629</v>
       </c>
@@ -10497,7 +9007,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>44277.64688803241</v>
       </c>
@@ -10511,7 +9021,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>44277.646888680552</v>
       </c>
@@ -10539,7 +9049,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>44277.646888958334</v>
       </c>
@@ -10549,7 +9059,7 @@
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>44277.646889050928</v>
       </c>
@@ -10563,7 +9073,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>44277.646889236108</v>
       </c>
@@ -10577,7 +9087,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>44277.646889699077</v>
       </c>
@@ -10605,7 +9115,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>44277.646890069445</v>
       </c>
@@ -10633,7 +9143,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>44277.646890625001</v>
       </c>
@@ -10647,7 +9157,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>44277.646890810189</v>
       </c>
@@ -10661,7 +9171,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>44277.646891273151</v>
       </c>
@@ -10675,7 +9185,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44277.646891458331</v>
       </c>
@@ -10717,7 +9227,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>44277.646892106481</v>
       </c>
@@ -10731,7 +9241,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>44277.646892384262</v>
       </c>
@@ -10745,7 +9255,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>44277.64689275463</v>
       </c>
@@ -10759,7 +9269,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>44277.646893032404</v>
       </c>
@@ -10801,7 +9311,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>44277.646893680554</v>
       </c>
@@ -10815,7 +9325,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>44277.646893773148</v>
       </c>
@@ -10825,7 +9335,7 @@
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>44277.646894143516</v>
       </c>
@@ -10853,7 +9363,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>44277.646894513891</v>
       </c>
@@ -10881,7 +9391,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>44277.646894976853</v>
       </c>
@@ -10895,7 +9405,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>44277.646895347221</v>
       </c>
@@ -10909,7 +9419,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>44277.646895532409</v>
       </c>
@@ -10937,7 +9447,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>44277.646895902777</v>
       </c>
@@ -10965,7 +9475,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>44277.646896458333</v>
       </c>
@@ -10979,7 +9489,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>44277.64689664352</v>
       </c>
@@ -11007,7 +9517,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>44277.64689729167</v>
       </c>
@@ -11021,7 +9531,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>44277.64689747685</v>
       </c>
@@ -11035,7 +9545,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>44277.646897754632</v>
       </c>
@@ -11049,7 +9559,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>44277.646898125</v>
       </c>
@@ -11077,7 +9587,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>44277.646898310188</v>
       </c>
@@ -11087,7 +9597,7 @@
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>44277.646898402774</v>
       </c>
@@ -11115,7 +9625,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>44277.64689877315</v>
       </c>
@@ -11129,7 +9639,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>44277.646899328705</v>
       </c>
@@ -11157,7 +9667,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>44277.64689960648</v>
       </c>
@@ -11181,7 +9691,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>44277.646899884261</v>
       </c>
@@ -11195,7 +9705,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>44277.646900254629</v>
       </c>
@@ -11223,7 +9733,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>44277.646900624997</v>
       </c>
@@ -11237,7 +9747,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>44277.646900995373</v>
       </c>
@@ -11251,7 +9761,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>44277.646901087966</v>
       </c>
@@ -11279,7 +9789,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>44277.646901921296</v>
       </c>
@@ -11293,7 +9803,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>44277.64690201389</v>
       </c>
@@ -11307,7 +9817,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>44277.646902291664</v>
       </c>
@@ -11331,7 +9841,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>44277.646902754626</v>
       </c>
@@ -11345,7 +9855,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>44277.646902939814</v>
       </c>
@@ -11373,7 +9883,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>44277.646903310182</v>
       </c>
@@ -11387,7 +9897,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>44277.646903587964</v>
       </c>
@@ -11429,7 +9939,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>44277.646904328707</v>
       </c>
@@ -11443,7 +9953,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>44277.646904884263</v>
       </c>
@@ -11471,7 +9981,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>44277.646905069443</v>
       </c>
@@ -11499,7 +10009,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>44277.646905624999</v>
       </c>
@@ -11513,7 +10023,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>44277.646905810187</v>
       </c>
@@ -11527,7 +10037,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>44277.646906458336</v>
       </c>
@@ -11541,7 +10051,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>44277.646906550923</v>
       </c>
@@ -11555,7 +10065,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>44277.646906643517</v>
       </c>
@@ -11565,7 +10075,7 @@
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
     </row>
-    <row r="190" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>44277.646906828704</v>
       </c>
@@ -11579,7 +10089,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>44277.646907291666</v>
       </c>
@@ -11593,7 +10103,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>44277.646907291666</v>
       </c>
@@ -11607,7 +10117,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>44277.646907569448</v>
       </c>
@@ -11617,7 +10127,7 @@
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
     </row>
-    <row r="194" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>44277.646907939816</v>
       </c>
@@ -11645,7 +10155,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>44277.646908587965</v>
       </c>
@@ -11673,7 +10183,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>44277.64690886574</v>
       </c>
@@ -11683,7 +10193,7 @@
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
     </row>
-    <row r="199" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>44277.646909143521</v>
       </c>
@@ -11697,7 +10207,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>44277.646909236108</v>
       </c>
@@ -11711,7 +10221,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>44277.646909328701</v>
       </c>
@@ -11739,7 +10249,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>44277.646909884257</v>
       </c>
@@ -11753,7 +10263,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>44277.646909884257</v>
       </c>
@@ -11763,7 +10273,7 @@
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
     </row>
-    <row r="205" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>44277.646910254633</v>
       </c>
@@ -11791,7 +10301,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>44277.646910717594</v>
       </c>
@@ -11805,7 +10315,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>44277.646910810188</v>
       </c>
@@ -11819,7 +10329,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>44277.646910995369</v>
       </c>
@@ -11833,7 +10343,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>44277.646911365744</v>
       </c>
@@ -11843,7 +10353,7 @@
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
     </row>
-    <row r="211" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>44277.646911458331</v>
       </c>
@@ -11857,7 +10367,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>44277.646911828706</v>
       </c>
@@ -11885,7 +10395,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>44277.646912013886</v>
       </c>
@@ -11899,7 +10409,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>44277.646912013886</v>
       </c>
@@ -11927,7 +10437,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>44277.64691275463</v>
       </c>
@@ -11941,7 +10451,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>44277.646912939817</v>
       </c>
@@ -11969,7 +10479,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>44277.646913495373</v>
       </c>
@@ -11983,7 +10493,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>44277.646913680554</v>
       </c>
@@ -11997,7 +10507,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>44277.646914050929</v>
       </c>
@@ -12011,7 +10521,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>44277.646914328703</v>
       </c>
@@ -12039,7 +10549,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>44277.646914606485</v>
       </c>
@@ -12053,7 +10563,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>44277.646914976853</v>
       </c>
@@ -12067,7 +10577,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>44277.64691516204</v>
       </c>
@@ -12109,7 +10619,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>44277.646915625002</v>
       </c>
@@ -12123,7 +10633,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>44277.646916273145</v>
       </c>
@@ -12151,7 +10661,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>44277.646916550926</v>
       </c>
@@ -12175,7 +10685,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>44277.646916921294</v>
       </c>
@@ -12189,7 +10699,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>44277.646917384256</v>
       </c>
@@ -12203,7 +10713,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>44277.646917569444</v>
       </c>
@@ -12231,7 +10741,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>44277.646917939812</v>
       </c>
@@ -12245,7 +10755,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>44277.646918217593</v>
       </c>
@@ -12287,7 +10797,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>44277.646918773149</v>
       </c>
@@ -12301,7 +10811,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>44277.646919050923</v>
       </c>
@@ -12329,7 +10839,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>44277.646919513892</v>
       </c>
@@ -12371,7 +10881,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>44277.646920347222</v>
       </c>
@@ -12385,7 +10895,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>44277.646920717591</v>
       </c>
@@ -12413,7 +10923,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>44277.646920995372</v>
       </c>
@@ -12427,7 +10937,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>44277.646921087966</v>
       </c>
@@ -12437,7 +10947,7 @@
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
     </row>
-    <row r="254" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>44277.64692136574</v>
       </c>
@@ -12465,7 +10975,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>44277.646921736108</v>
       </c>
@@ -12479,7 +10989,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>44277.646922291664</v>
       </c>
@@ -12507,7 +11017,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>44277.646922754633</v>
       </c>
@@ -12531,7 +11041,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>44277.646923125001</v>
       </c>
@@ -12545,7 +11055,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>44277.646923495369</v>
       </c>
@@ -12573,7 +11083,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>44277.646923865737</v>
       </c>
@@ -12587,7 +11097,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>44277.646924236113</v>
       </c>
@@ -12601,7 +11111,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>44277.646924513887</v>
       </c>
@@ -12643,7 +11153,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>44277.64692525463</v>
       </c>
@@ -12657,7 +11167,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>44277.646925532405</v>
       </c>
@@ -12667,7 +11177,7 @@
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
     </row>
-    <row r="271" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>44277.64692590278</v>
       </c>
@@ -12695,7 +11205,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>44277.646926180554</v>
       </c>
@@ -12709,7 +11219,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>44277.646926458336</v>
       </c>
@@ -12737,7 +11247,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>44277.646926921298</v>
       </c>
@@ -12751,7 +11261,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>44277.646927291666</v>
       </c>
@@ -12765,7 +11275,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>44277.646927569447</v>
       </c>
@@ -12793,7 +11303,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>44277.646928217589</v>
       </c>
@@ -12807,7 +11317,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>44277.646928217589</v>
       </c>
@@ -12821,7 +11331,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>44277.646928402777</v>
       </c>
@@ -12845,7 +11355,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>44277.646928773145</v>
       </c>
@@ -12859,7 +11369,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>44277.646929236114</v>
       </c>
@@ -12873,7 +11383,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>44277.646929236114</v>
       </c>
@@ -12901,7 +11411,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>44277.646929976851</v>
       </c>
@@ -12943,7 +11453,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>44277.646930532406</v>
       </c>
@@ -12957,7 +11467,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>44277.646930625</v>
       </c>
@@ -12985,7 +11495,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>44277.646931087962</v>
       </c>
@@ -12999,7 +11509,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>44277.646931365744</v>
       </c>
@@ -13023,7 +11533,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>44277.646931828705</v>
       </c>
@@ -13051,7 +11561,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>44277.646932476855</v>
       </c>
@@ -13065,7 +11575,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>44277.646932662035</v>
       </c>
@@ -13079,7 +11589,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>44277.646932662035</v>
       </c>
@@ -13103,7 +11613,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>44277.646933032411</v>
       </c>
@@ -13117,7 +11627,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>44277.646933310185</v>
       </c>
@@ -13131,7 +11641,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>44277.646933680553</v>
       </c>
@@ -13145,7 +11655,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>44277.646934236109</v>
       </c>
@@ -13187,7 +11697,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>44277.646934699071</v>
       </c>
@@ -13201,7 +11711,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>44277.646934976852</v>
       </c>
@@ -13215,7 +11725,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>44277.646935254626</v>
       </c>
@@ -13229,7 +11739,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>44277.646935625002</v>
       </c>
@@ -13257,7 +11767,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>44277.646936087964</v>
       </c>
@@ -13285,7 +11795,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>44277.646936273151</v>
       </c>
@@ -13313,7 +11823,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>44277.646936921294</v>
       </c>
@@ -13327,7 +11837,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>44277.646937013888</v>
       </c>
@@ -13355,7 +11865,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>44277.646937384263</v>
       </c>
@@ -13369,7 +11879,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>44277.646937754631</v>
       </c>
@@ -13383,7 +11893,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>44277.646937939811</v>
       </c>
@@ -13411,7 +11921,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>44277.646938402781</v>
       </c>
@@ -13439,7 +11949,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>44277.646938773149</v>
       </c>
@@ -13467,7 +11977,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>44277.64693923611</v>
       </c>
@@ -13495,7 +12005,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>44277.646939699072</v>
       </c>
@@ -13509,7 +12019,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>44277.646940162034</v>
       </c>
@@ -13537,7 +12047,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>44277.64694053241</v>
       </c>
@@ -13565,7 +12075,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>44277.646941180552</v>
       </c>
@@ -13579,7 +12089,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>44277.646941273146</v>
       </c>
@@ -13593,7 +12103,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>44277.646941458333</v>
       </c>
@@ -13621,7 +12131,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>44277.646942013889</v>
       </c>
@@ -13635,7 +12145,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <v>44277.646942291663</v>
       </c>
@@ -13645,7 +12155,7 @@
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
     </row>
-    <row r="342" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>44277.646942476851</v>
       </c>
@@ -13687,7 +12197,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>44277.646943402775</v>
       </c>
@@ -13701,7 +12211,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>44277.646943680556</v>
       </c>
@@ -13711,7 +12221,7 @@
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
     </row>
-    <row r="347" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>44277.646943680556</v>
       </c>
@@ -13725,7 +12235,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>44277.646943958331</v>
       </c>
@@ -13739,7 +12249,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>44277.646944143518</v>
       </c>
@@ -13763,7 +12273,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>44277.64694460648</v>
       </c>
@@ -13791,7 +12301,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>44277.646945069442</v>
       </c>
@@ -13805,7 +12315,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>44277.64694554398</v>
       </c>
@@ -13833,7 +12343,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <v>44277.646946006942</v>
       </c>
@@ -13861,7 +12371,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>44277.646946469904</v>
       </c>
@@ -13903,7 +12413,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>44277.64694702546</v>
       </c>
@@ -13917,7 +12427,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>44277.646947488429</v>
       </c>
@@ -13945,7 +12455,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>44277.646947858797</v>
       </c>
@@ -13987,7 +12497,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>44277.646948414353</v>
       </c>
@@ -14015,7 +12525,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <v>44277.646949062502</v>
       </c>
@@ -14043,7 +12553,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <v>44277.646949710645</v>
       </c>
@@ -14071,7 +12581,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>44277.6469502662</v>
       </c>
@@ -14085,7 +12595,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>44277.646950636576</v>
       </c>
@@ -14127,7 +12637,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>44277.646951562499</v>
       </c>
@@ -14141,7 +12651,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>44277.646951932868</v>
       </c>
@@ -14309,7 +12819,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>44277.646955821758</v>
       </c>
@@ -14767,7 +13277,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
         <v>44277.646967407411</v>
       </c>
@@ -15225,7 +13735,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
         <v>44277.646979166668</v>
       </c>
@@ -15235,7 +13745,7 @@
       <c r="C456" s="6"/>
       <c r="D456" s="6"/>
     </row>
-    <row r="457" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <v>44277.646979259262</v>
       </c>
@@ -15249,7 +13759,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>44277.646979444442</v>
       </c>
@@ -15273,7 +13783,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>44277.646980092592</v>
       </c>
@@ -15329,7 +13839,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
         <v>44277.646981851853</v>
       </c>
@@ -15399,7 +13909,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
         <v>44277.64698351852</v>
       </c>
@@ -15413,7 +13923,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
         <v>44277.646983888888</v>
       </c>
@@ -15455,7 +13965,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A473" s="4">
         <v>44277.646984444444</v>
       </c>
@@ -15469,7 +13979,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
         <v>44277.646984999999</v>
       </c>
@@ -15511,7 +14021,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>44277.646985740743</v>
       </c>
@@ -15567,7 +14077,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
         <v>44277.646987222222</v>
       </c>
@@ -15707,7 +14217,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
         <v>44277.646990277775</v>
       </c>
@@ -15858,18 +14368,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D501" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="e2001d8712461320db93"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D501" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D2:D500" xr:uid="{711AEAFE-A3A7-43CD-94DB-E0F60928B924}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C2:C500" xr:uid="{E86FC277-E596-4EDB-9630-2127728B6298}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B2:B500" xr:uid="{4438EDC1-165D-4390-883A-3B4B7B766E78}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A2:A500" xr:uid="{2706574B-93C4-4998-BDEF-9CF5EC080DC9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D2:D500" xr:uid="{DBC58F39-8D92-4263-A1D0-A237118A1DD2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C2:C500" xr:uid="{A8F64A24-27CF-4171-95E2-EAFE3A4C46BD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B2:B500" xr:uid="{904620C5-BE6F-4BEE-BC3A-0D1FBA5D1077}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A2:A500" xr:uid="{A1324FA8-EB25-4DA4-89AE-F9A3C8BBBBF7}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15878,105 +14382,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC26750B-BD47-411C-A0C4-877562E69E36}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D77" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F1" t="e">
+        <f>AVERAGE(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G1" t="e">
+        <f>AVERAGE(D:D)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F2" t="e">
+        <f>STDEV(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" t="e">
+        <f>STDEV(D:D)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>COUNT(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>COUNT(D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -16313,10 +14841,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A217" workbookViewId="0">
+      <selection sqref="A1:D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19621,12 +18149,360 @@
         <v>174</v>
       </c>
     </row>
+    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+    </row>
+    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="4"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+    </row>
+    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+    </row>
+    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A238" s="4"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+    </row>
+    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+    </row>
+    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A240" s="4"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+    </row>
+    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+    </row>
+    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+    </row>
+    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+    </row>
+    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+    </row>
+    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+    </row>
+    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+    </row>
+    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+    </row>
+    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+    </row>
+    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+    </row>
+    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+    </row>
+    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+    </row>
+    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+    </row>
+    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+    </row>
+    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+    </row>
+    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+    </row>
+    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A256" s="4"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+    </row>
+    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+    </row>
+    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="6"/>
+    </row>
+    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+    </row>
+    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+    </row>
+    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+    </row>
+    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+    </row>
+    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+    </row>
+    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A264" s="4"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="6"/>
+    </row>
+    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="6"/>
+    </row>
+    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A266" s="4"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+    </row>
+    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A267" s="4"/>
+      <c r="B267" s="5"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="6"/>
+    </row>
+    <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A268" s="4"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="6"/>
+    </row>
+    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A269" s="4"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="6"/>
+    </row>
+    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A270" s="4"/>
+      <c r="B270" s="5"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="6"/>
+    </row>
+    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A271" s="4"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="6"/>
+    </row>
+    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A272" s="4"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="6"/>
+    </row>
+    <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A273" s="4"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="6"/>
+    </row>
+    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A274" s="4"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="6"/>
+    </row>
+    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A275" s="4"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="6"/>
+      <c r="D275" s="6"/>
+    </row>
+    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A276" s="4"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+    </row>
+    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A277" s="4"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="6"/>
+    </row>
+    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A278" s="4"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+    </row>
+    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+    </row>
+    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A280" s="4"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+    </row>
+    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+    </row>
+    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A282" s="4"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+    </row>
+    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A283" s="4"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6"/>
+    </row>
+    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="4"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="6"/>
+    </row>
+    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+    </row>
+    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="6"/>
+    </row>
+    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="6"/>
+    </row>
+    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A288" s="4"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="6"/>
+    </row>
+    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="6"/>
+    </row>
+    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="6"/>
+    </row>
+    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="6"/>
+    </row>
+    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="6"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A233" xr:uid="{A738B4EA-076B-40A1-A0D1-E4D42B34918D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B233" xr:uid="{F85FC7DB-D31B-4C88-AA1A-92C95EB3DED0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C233" xr:uid="{39357680-914D-49E5-8AE5-D2451C160F82}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D233" xr:uid="{CF01AD0E-A081-4860-95D3-BA3FB369906E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A233 A235:A292" xr:uid="{A738B4EA-076B-40A1-A0D1-E4D42B34918D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B233 B235:B292" xr:uid="{F85FC7DB-D31B-4C88-AA1A-92C95EB3DED0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C233 C235:C292" xr:uid="{39357680-914D-49E5-8AE5-D2451C160F82}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D233 D235:D292" xr:uid="{CF01AD0E-A081-4860-95D3-BA3FB369906E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19636,8 +18512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D113"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="D154" sqref="A154:D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21801,9 +20677,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection sqref="A1:D121"/>
     </sheetView>
   </sheetViews>
@@ -23527,12 +22403,168 @@
         <v>177</v>
       </c>
     </row>
+    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A121" xr:uid="{F00659E5-718B-4AA0-B6BD-F4AFBDF1995D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B121" xr:uid="{AC440729-ABF3-486D-98B9-AB69A179330A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C121" xr:uid="{F6B3D386-5C64-473F-9260-1D128C877739}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D121" xr:uid="{3C738301-7B46-40D3-9055-D17A8AA45AAA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A147" xr:uid="{F00659E5-718B-4AA0-B6BD-F4AFBDF1995D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B147" xr:uid="{AC440729-ABF3-486D-98B9-AB69A179330A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C147" xr:uid="{F6B3D386-5C64-473F-9260-1D128C877739}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D147" xr:uid="{3C738301-7B46-40D3-9055-D17A8AA45AAA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
